--- a/PSP2/psp-forms/Program Size.xlsx
+++ b/PSP2/psp-forms/Program Size.xlsx
@@ -12,10 +12,10 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
-    <sheet name="excel (1)" sheetId="1" r:id="rId1"/>
+    <sheet name="excel (9)" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="excel__1" localSheetId="0">'excel (1)'!$A$1:$D$24</definedName>
+    <definedName name="excel__9" localSheetId="0">'excel (9)'!$A$1:$D$24</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
@@ -23,7 +23,7 @@
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" odcFile="D:\afmap\Descargas\excel (1).iqy" name="excel (1)" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="1" odcFile="D:\afmap\Descargas\excel (9).iqy" name="excel (9)" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr consecutive="1" xl2000="1" url="http://localhost:2468/reports/form2html.class?uri=%2FNon%2BProject%2FPSP%2BFundamentals%2B%2526%2BAdvanced%2FProgram%2B3%2F%2Fcms%2Fpsp2%2Fsummary%3Fframe%3Dcontent%26section%3D105&amp;EXPORT=excel" htmlFormat="all"/>
   </connection>
 </connections>
@@ -80,7 +80,7 @@
     <t>Adapted from "PSP Materials," copyright © 2006 Carnegie Mellon University. Used by permission.</t>
   </si>
   <si>
-    <t>Reporte generado a las 04:14 PM el 4/03/2017</t>
+    <t>Reporte generado a las 09:42 PM el 6/03/2017</t>
   </si>
 </sst>
 </file>
@@ -702,7 +702,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="excel (1)" preserveFormatting="0" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="excel (9)" preserveFormatting="0" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -970,9 +970,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1040,10 +1038,10 @@
         <v>70</v>
       </c>
       <c r="C9" s="8">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D9" s="8">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -1054,10 +1052,10 @@
         <v>51</v>
       </c>
       <c r="C10" s="8">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D10" s="8">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -1068,10 +1066,10 @@
         <v>158</v>
       </c>
       <c r="C11" s="8">
-        <v>111</v>
+        <v>124</v>
       </c>
       <c r="D11" s="8">
-        <v>284</v>
+        <v>297</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -1096,10 +1094,10 @@
         <v>209</v>
       </c>
       <c r="C13" s="8">
-        <v>153</v>
+        <v>167</v>
       </c>
       <c r="D13" s="8">
-        <v>379</v>
+        <v>393</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -1110,10 +1108,10 @@
         <v>209</v>
       </c>
       <c r="C14" s="8">
-        <v>174</v>
+        <v>186</v>
       </c>
       <c r="D14" s="8">
-        <v>422</v>
+        <v>434</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -1138,10 +1136,10 @@
         <v>209</v>
       </c>
       <c r="C16" s="8">
-        <v>226</v>
+        <v>240</v>
       </c>
       <c r="D16" s="8">
-        <v>369</v>
+        <v>383</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
